--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H2">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I2">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J2">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4734346666666666</v>
+        <v>0.5351276666666666</v>
       </c>
       <c r="N2">
-        <v>1.420304</v>
+        <v>1.605383</v>
       </c>
       <c r="O2">
-        <v>0.05284863793465887</v>
+        <v>0.04512696048487568</v>
       </c>
       <c r="P2">
-        <v>0.05971365108322603</v>
+        <v>0.0511377912725271</v>
       </c>
       <c r="Q2">
-        <v>8.729513002369778</v>
+        <v>11.63934836172766</v>
       </c>
       <c r="R2">
-        <v>78.56561702132799</v>
+        <v>104.754135255549</v>
       </c>
       <c r="S2">
-        <v>0.01682623085322303</v>
+        <v>0.01630205056523774</v>
       </c>
       <c r="T2">
-        <v>0.0208005019678902</v>
+        <v>0.01929439109476033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H3">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I3">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J3">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.600709</v>
       </c>
       <c r="O3">
-        <v>0.2083989358041556</v>
+        <v>0.1574346892487883</v>
       </c>
       <c r="P3">
-        <v>0.2354698593010256</v>
+        <v>0.178404709542934</v>
       </c>
       <c r="Q3">
-        <v>34.423237587157</v>
+        <v>40.606262258703</v>
       </c>
       <c r="R3">
-        <v>309.809138284413</v>
+        <v>365.456360328327</v>
       </c>
       <c r="S3">
-        <v>0.06635116325499604</v>
+        <v>0.05687305852820301</v>
       </c>
       <c r="T3">
-        <v>0.08202297436047519</v>
+        <v>0.06731245432021146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H4">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I4">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J4">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.794003</v>
+        <v>2.563637666666667</v>
       </c>
       <c r="N4">
-        <v>5.382009</v>
+        <v>7.690913</v>
       </c>
       <c r="O4">
-        <v>0.2002612433690784</v>
+        <v>0.2161898606398702</v>
       </c>
       <c r="P4">
-        <v>0.2262750844557097</v>
+        <v>0.2449859651492294</v>
       </c>
       <c r="Q4">
-        <v>33.079057402057</v>
+        <v>55.76065999623766</v>
       </c>
       <c r="R4">
-        <v>297.711516618513</v>
+        <v>501.845939966139</v>
       </c>
       <c r="S4">
-        <v>0.06376024139066286</v>
+        <v>0.07809828098269656</v>
       </c>
       <c r="T4">
-        <v>0.07882008978057006</v>
+        <v>0.09243369544699082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H5">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I5">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J5">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0896925</v>
+        <v>4.181529</v>
       </c>
       <c r="N5">
-        <v>6.179385</v>
+        <v>8.363058000000001</v>
       </c>
       <c r="O5">
-        <v>0.3448966705619311</v>
+        <v>0.3526255615314758</v>
       </c>
       <c r="P5">
-        <v>0.2597990569616933</v>
+        <v>0.2663964389831199</v>
       </c>
       <c r="Q5">
-        <v>56.9698688141575</v>
+        <v>90.950768848929</v>
       </c>
       <c r="R5">
-        <v>341.819212884945</v>
+        <v>545.704613093574</v>
       </c>
       <c r="S5">
-        <v>0.1098100391264232</v>
+        <v>0.1273854847061568</v>
       </c>
       <c r="T5">
-        <v>0.09049774544946096</v>
+        <v>0.100511910117501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H6">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I6">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J6">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.734280333333333</v>
+        <v>2.711072333333334</v>
       </c>
       <c r="N6">
-        <v>5.202841</v>
+        <v>8.133217</v>
       </c>
       <c r="O6">
-        <v>0.1935945123301762</v>
+        <v>0.2286229280949899</v>
       </c>
       <c r="P6">
-        <v>0.2187423481983455</v>
+        <v>0.2590750950521895</v>
       </c>
       <c r="Q6">
-        <v>31.97784992421523</v>
+        <v>58.96745260447234</v>
       </c>
       <c r="R6">
-        <v>287.800649317937</v>
+        <v>530.707073440251</v>
       </c>
       <c r="S6">
-        <v>0.06163765205097906</v>
+        <v>0.08258970899283927</v>
       </c>
       <c r="T6">
-        <v>0.0761961555125662</v>
+        <v>0.09774955238504042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J7">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4734346666666666</v>
+        <v>0.5351276666666666</v>
       </c>
       <c r="N7">
-        <v>1.420304</v>
+        <v>1.605383</v>
       </c>
       <c r="O7">
-        <v>0.05284863793465887</v>
+        <v>0.04512696048487568</v>
       </c>
       <c r="P7">
-        <v>0.05971365108322603</v>
+        <v>0.0511377912725271</v>
       </c>
       <c r="Q7">
-        <v>7.975035839514667</v>
+        <v>9.014258187787666</v>
       </c>
       <c r="R7">
-        <v>71.77532255563199</v>
+        <v>81.12832369008899</v>
       </c>
       <c r="S7">
-        <v>0.01537196795078637</v>
+        <v>0.01262535394753066</v>
       </c>
       <c r="T7">
-        <v>0.01900274948084588</v>
+        <v>0.01494281445138433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J8">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.600709</v>
       </c>
       <c r="O8">
-        <v>0.2083989358041556</v>
+        <v>0.1574346892487883</v>
       </c>
       <c r="P8">
-        <v>0.2354698593010256</v>
+        <v>0.178404709542934</v>
       </c>
       <c r="Q8">
         <v>31.448094916083</v>
@@ -948,10 +948,10 @@
         <v>283.032854244747</v>
       </c>
       <c r="S8">
-        <v>0.06061654353552533</v>
+        <v>0.04404614567497009</v>
       </c>
       <c r="T8">
-        <v>0.07493386630053769</v>
+        <v>0.05213108360011182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J9">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.794003</v>
+        <v>2.563637666666667</v>
       </c>
       <c r="N9">
-        <v>5.382009</v>
+        <v>7.690913</v>
       </c>
       <c r="O9">
-        <v>0.2002612433690784</v>
+        <v>0.2161898606398702</v>
       </c>
       <c r="P9">
-        <v>0.2262750844557097</v>
+        <v>0.2449859651492294</v>
       </c>
       <c r="Q9">
-        <v>30.220089969183</v>
+        <v>43.18463287689767</v>
       </c>
       <c r="R9">
-        <v>271.980809722647</v>
+        <v>388.661695892079</v>
       </c>
       <c r="S9">
-        <v>0.05824955070100753</v>
+        <v>0.06048431981942309</v>
       </c>
       <c r="T9">
-        <v>0.07200780166123442</v>
+        <v>0.07158658458494929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>50.535183</v>
       </c>
       <c r="I10">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J10">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.0896925</v>
+        <v>4.181529</v>
       </c>
       <c r="N10">
-        <v>6.179385</v>
+        <v>8.363058000000001</v>
       </c>
       <c r="O10">
-        <v>0.3448966705619311</v>
+        <v>0.3526255615314758</v>
       </c>
       <c r="P10">
-        <v>0.2597990569616933</v>
+        <v>0.2663964389831199</v>
       </c>
       <c r="Q10">
-        <v>52.0460586337425</v>
+        <v>70.438111078269</v>
       </c>
       <c r="R10">
-        <v>312.276351802455</v>
+        <v>422.6286664696141</v>
       </c>
       <c r="S10">
-        <v>0.1003193416785104</v>
+        <v>0.09865549280177494</v>
       </c>
       <c r="T10">
-        <v>0.0826761771428489</v>
+        <v>0.07784287234894438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>50.535183</v>
       </c>
       <c r="I11">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J11">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.734280333333333</v>
+        <v>2.711072333333334</v>
       </c>
       <c r="N11">
-        <v>5.202841</v>
+        <v>8.133217</v>
       </c>
       <c r="O11">
-        <v>0.1935945123301762</v>
+        <v>0.2286229280949899</v>
       </c>
       <c r="P11">
-        <v>0.2187423481983455</v>
+        <v>0.2590750950521895</v>
       </c>
       <c r="Q11">
-        <v>29.21405800610034</v>
+        <v>45.66817883041234</v>
       </c>
       <c r="R11">
-        <v>262.926522054903</v>
+        <v>411.013609473711</v>
       </c>
       <c r="S11">
-        <v>0.05631041319677851</v>
+        <v>0.06396276985434224</v>
       </c>
       <c r="T11">
-        <v>0.06961064962970864</v>
+        <v>0.07570352527954062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H12">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I12">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J12">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4734346666666666</v>
+        <v>0.5351276666666666</v>
       </c>
       <c r="N12">
-        <v>1.420304</v>
+        <v>1.605383</v>
       </c>
       <c r="O12">
-        <v>0.05284863793465887</v>
+        <v>0.04512696048487568</v>
       </c>
       <c r="P12">
-        <v>0.05971365108322603</v>
+        <v>0.0511377912725271</v>
       </c>
       <c r="Q12">
-        <v>2.256983939651556</v>
+        <v>4.783194232903665</v>
       </c>
       <c r="R12">
-        <v>20.312855456864</v>
+        <v>43.048748096133</v>
       </c>
       <c r="S12">
-        <v>0.004350360986951332</v>
+        <v>0.006699333315303824</v>
       </c>
       <c r="T12">
-        <v>0.005377894375719967</v>
+        <v>0.007929036690344985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H13">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I13">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J13">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.600709</v>
       </c>
       <c r="O13">
-        <v>0.2083989358041556</v>
+        <v>0.1574346892487883</v>
       </c>
       <c r="P13">
-        <v>0.2354698593010256</v>
+        <v>0.178404709542934</v>
       </c>
       <c r="Q13">
-        <v>8.900003283566001</v>
+        <v>16.687157512551</v>
       </c>
       <c r="R13">
-        <v>80.100029552094</v>
+        <v>150.184417612959</v>
       </c>
       <c r="S13">
-        <v>0.01715485271664884</v>
+        <v>0.02337200306283421</v>
       </c>
       <c r="T13">
-        <v>0.02120674266293991</v>
+        <v>0.02766207637239548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H14">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I14">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J14">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.794003</v>
+        <v>2.563637666666667</v>
       </c>
       <c r="N14">
-        <v>5.382009</v>
+        <v>7.690913</v>
       </c>
       <c r="O14">
-        <v>0.2002612433690784</v>
+        <v>0.2161898606398702</v>
       </c>
       <c r="P14">
-        <v>0.2262750844557097</v>
+        <v>0.2449859651492294</v>
       </c>
       <c r="Q14">
-        <v>8.552470369766001</v>
+        <v>22.91486250157367</v>
       </c>
       <c r="R14">
-        <v>76.972233327894</v>
+        <v>206.233762514163</v>
       </c>
       <c r="S14">
-        <v>0.0164849792614968</v>
+        <v>0.03209451556793817</v>
       </c>
       <c r="T14">
-        <v>0.02037864846622572</v>
+        <v>0.03798565909770518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H15">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I15">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J15">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.0896925</v>
+        <v>4.181529</v>
       </c>
       <c r="N15">
-        <v>6.179385</v>
+        <v>8.363058000000001</v>
       </c>
       <c r="O15">
-        <v>0.3448966705619311</v>
+        <v>0.3526255615314758</v>
       </c>
       <c r="P15">
-        <v>0.2597990569616933</v>
+        <v>0.2663964389831199</v>
       </c>
       <c r="Q15">
-        <v>14.729353048985</v>
+        <v>37.376249899593</v>
       </c>
       <c r="R15">
-        <v>88.37611829391</v>
+        <v>224.257499397558</v>
       </c>
       <c r="S15">
-        <v>0.02839098752170548</v>
+        <v>0.05234910897637963</v>
       </c>
       <c r="T15">
-        <v>0.02339786400440211</v>
+        <v>0.04130540420914085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H16">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I16">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J16">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.734280333333333</v>
+        <v>2.711072333333334</v>
       </c>
       <c r="N16">
-        <v>5.202841</v>
+        <v>8.133217</v>
       </c>
       <c r="O16">
-        <v>0.1935945123301762</v>
+        <v>0.2286229280949899</v>
       </c>
       <c r="P16">
-        <v>0.2187423481983455</v>
+        <v>0.2590750950521895</v>
       </c>
       <c r="Q16">
-        <v>8.267757168578445</v>
+        <v>24.23269503249633</v>
       </c>
       <c r="R16">
-        <v>74.409814517206</v>
+        <v>218.094255292467</v>
       </c>
       <c r="S16">
-        <v>0.01593619148274655</v>
+        <v>0.03394026946136557</v>
       </c>
       <c r="T16">
-        <v>0.01970023977378452</v>
+        <v>0.04017021234405595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H17">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I17">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J17">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4734346666666666</v>
+        <v>0.5351276666666666</v>
       </c>
       <c r="N17">
-        <v>1.420304</v>
+        <v>1.605383</v>
       </c>
       <c r="O17">
-        <v>0.05284863793465887</v>
+        <v>0.04512696048487568</v>
       </c>
       <c r="P17">
-        <v>0.05971365108322603</v>
+        <v>0.0511377912725271</v>
       </c>
       <c r="Q17">
-        <v>7.072710790381333</v>
+        <v>4.112654383133832</v>
       </c>
       <c r="R17">
-        <v>42.436264742288</v>
+        <v>24.675926298803</v>
       </c>
       <c r="S17">
-        <v>0.01363272664634685</v>
+        <v>0.00576017639712974</v>
       </c>
       <c r="T17">
-        <v>0.01123513875086411</v>
+        <v>0.004544994538622442</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H18">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I18">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J18">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.600709</v>
       </c>
       <c r="O18">
-        <v>0.2083989358041556</v>
+        <v>0.1574346892487883</v>
       </c>
       <c r="P18">
-        <v>0.2354698593010256</v>
+        <v>0.178404709542934</v>
       </c>
       <c r="Q18">
-        <v>27.8899411520955</v>
+        <v>14.3478412425615</v>
       </c>
       <c r="R18">
-        <v>167.339646912573</v>
+        <v>86.087047455369</v>
       </c>
       <c r="S18">
-        <v>0.05375816362041834</v>
+        <v>0.02009556086553309</v>
       </c>
       <c r="T18">
-        <v>0.04430371435848478</v>
+        <v>0.01585614885507917</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H19">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I19">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J19">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.794003</v>
+        <v>2.563637666666667</v>
       </c>
       <c r="N19">
-        <v>5.382009</v>
+        <v>7.690913</v>
       </c>
       <c r="O19">
-        <v>0.2002612433690784</v>
+        <v>0.2161898606398702</v>
       </c>
       <c r="P19">
-        <v>0.2262750844557097</v>
+        <v>0.2449859651492294</v>
       </c>
       <c r="Q19">
-        <v>26.8008772264455</v>
+        <v>19.70250529608883</v>
       </c>
       <c r="R19">
-        <v>160.805263358673</v>
+        <v>118.215031776533</v>
       </c>
       <c r="S19">
-        <v>0.0516589811090996</v>
+        <v>0.02759529379280725</v>
       </c>
       <c r="T19">
-        <v>0.04257371511549597</v>
+        <v>0.02177371853446831</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H20">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I20">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J20">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.0896925</v>
+        <v>4.181529</v>
       </c>
       <c r="N20">
-        <v>6.179385</v>
+        <v>8.363058000000001</v>
       </c>
       <c r="O20">
-        <v>0.3448966705619311</v>
+        <v>0.3526255615314758</v>
       </c>
       <c r="P20">
-        <v>0.2597990569616933</v>
+        <v>0.2663964389831199</v>
       </c>
       <c r="Q20">
-        <v>46.15737507683625</v>
+        <v>32.1365996214945</v>
       </c>
       <c r="R20">
-        <v>184.629500307345</v>
+        <v>128.546398485978</v>
       </c>
       <c r="S20">
-        <v>0.0889688403477735</v>
+        <v>0.04501046413792882</v>
       </c>
       <c r="T20">
-        <v>0.04888125913185375</v>
+        <v>0.02367662603639302</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H21">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I21">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J21">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.734280333333333</v>
+        <v>2.711072333333334</v>
       </c>
       <c r="N21">
-        <v>5.202841</v>
+        <v>8.133217</v>
       </c>
       <c r="O21">
-        <v>0.1935945123301762</v>
+        <v>0.2286229280949899</v>
       </c>
       <c r="P21">
-        <v>0.2187423481983455</v>
+        <v>0.2590750950521895</v>
       </c>
       <c r="Q21">
-        <v>25.90867144029617</v>
+        <v>20.83559533396617</v>
       </c>
       <c r="R21">
-        <v>155.452028641777</v>
+        <v>125.013572003797</v>
       </c>
       <c r="S21">
-        <v>0.04993924479365398</v>
+        <v>0.02918229767982741</v>
       </c>
       <c r="T21">
-        <v>0.0411564288586701</v>
+        <v>0.02302592393617673</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H22">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I22">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J22">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4734346666666666</v>
+        <v>0.5351276666666666</v>
       </c>
       <c r="N22">
-        <v>1.420304</v>
+        <v>1.605383</v>
       </c>
       <c r="O22">
-        <v>0.05284863793465887</v>
+        <v>0.04512696048487568</v>
       </c>
       <c r="P22">
-        <v>0.05971365108322603</v>
+        <v>0.0511377912725271</v>
       </c>
       <c r="Q22">
-        <v>1.383832171395555</v>
+        <v>2.670320591333777</v>
       </c>
       <c r="R22">
-        <v>12.45448954256</v>
+        <v>24.032885322004</v>
       </c>
       <c r="S22">
-        <v>0.002667351497351282</v>
+        <v>0.003740046259673703</v>
       </c>
       <c r="T22">
-        <v>0.00329736650790588</v>
+        <v>0.004426554497415006</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H23">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I23">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J23">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.600709</v>
       </c>
       <c r="O23">
-        <v>0.2083989358041556</v>
+        <v>0.1574346892487883</v>
       </c>
       <c r="P23">
-        <v>0.2354698593010256</v>
+        <v>0.178404709542934</v>
       </c>
       <c r="Q23">
-        <v>5.45688901589</v>
+        <v>9.315962962587999</v>
       </c>
       <c r="R23">
-        <v>49.11200114301</v>
+        <v>83.843666663292</v>
       </c>
       <c r="S23">
-        <v>0.01051821267656699</v>
+        <v>0.01304792111724794</v>
       </c>
       <c r="T23">
-        <v>0.01300256161858802</v>
+        <v>0.01544294639513605</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H24">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I24">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J24">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.794003</v>
+        <v>2.563637666666667</v>
       </c>
       <c r="N24">
-        <v>5.382009</v>
+        <v>7.690913</v>
       </c>
       <c r="O24">
-        <v>0.2002612433690784</v>
+        <v>0.2161898606398702</v>
       </c>
       <c r="P24">
-        <v>0.2262750844557097</v>
+        <v>0.2449859651492294</v>
       </c>
       <c r="Q24">
-        <v>5.24380498889</v>
+        <v>12.79271261129378</v>
       </c>
       <c r="R24">
-        <v>47.19424490000999</v>
+        <v>115.134413501644</v>
       </c>
       <c r="S24">
-        <v>0.01010749090681155</v>
+        <v>0.01791745047700509</v>
       </c>
       <c r="T24">
-        <v>0.01249482943218355</v>
+        <v>0.02120630748511573</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H25">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I25">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J25">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.0896925</v>
+        <v>4.181529</v>
       </c>
       <c r="N25">
-        <v>6.179385</v>
+        <v>8.363058000000001</v>
       </c>
       <c r="O25">
-        <v>0.3448966705619311</v>
+        <v>0.3526255615314758</v>
       </c>
       <c r="P25">
-        <v>0.2597990569616933</v>
+        <v>0.2663964389831199</v>
       </c>
       <c r="Q25">
-        <v>9.031057888774999</v>
+        <v>20.866091752484</v>
       </c>
       <c r="R25">
-        <v>54.18634733264999</v>
+        <v>125.196550514904</v>
       </c>
       <c r="S25">
-        <v>0.0174074618875185</v>
+        <v>0.0292250109092356</v>
       </c>
       <c r="T25">
-        <v>0.01434601123312754</v>
+        <v>0.02305962627114062</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H26">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I26">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J26">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.734280333333333</v>
+        <v>2.711072333333334</v>
       </c>
       <c r="N26">
-        <v>5.202841</v>
+        <v>8.133217</v>
       </c>
       <c r="O26">
-        <v>0.1935945123301762</v>
+        <v>0.2286229280949899</v>
       </c>
       <c r="P26">
-        <v>0.2187423481983455</v>
+        <v>0.2590750950521895</v>
       </c>
       <c r="Q26">
-        <v>5.069237824054444</v>
+        <v>13.52842083719956</v>
       </c>
       <c r="R26">
-        <v>45.62314041649</v>
+        <v>121.755787534796</v>
       </c>
       <c r="S26">
-        <v>0.009771010806018037</v>
+        <v>0.01894788210661542</v>
       </c>
       <c r="T26">
-        <v>0.01207887442361603</v>
+        <v>0.02242588110737574</v>
       </c>
     </row>
   </sheetData>
